--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_3.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_3.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2041.46427442036</v>
+        <v>-2041.464274420357</v>
       </c>
     </row>
     <row r="7">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="C4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="D4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="E4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="F4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="G4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="H4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="I4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="J4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="K4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="L4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="M4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="N4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="O4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="P4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
     </row>
     <row r="5">
@@ -26534,7 +26536,7 @@
         <v>10750.74055314463</v>
       </c>
       <c r="G6" t="n">
-        <v>10750.74055314464</v>
+        <v>10750.74055314463</v>
       </c>
       <c r="H6" t="n">
         <v>10750.74055314463</v>
@@ -26546,7 +26548,7 @@
         <v>10750.74055314463</v>
       </c>
       <c r="K6" t="n">
-        <v>10750.74055314464</v>
+        <v>10750.74055314463</v>
       </c>
       <c r="L6" t="n">
         <v>10750.74055314464</v>
@@ -26558,7 +26560,7 @@
         <v>10750.74055314463</v>
       </c>
       <c r="O6" t="n">
-        <v>10750.74055314463</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="P6" t="n">
         <v>10750.74055314464</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_3.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2041.464274420357</v>
+        <v>-128802.4181436854</v>
       </c>
     </row>
     <row r="7">
@@ -26328,7 +26328,7 @@
         <v>16126.11082971696</v>
       </c>
       <c r="G2" t="n">
-        <v>16126.11082971696</v>
+        <v>16126.11082971695</v>
       </c>
       <c r="H2" t="n">
         <v>16126.11082971696</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="E6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="F6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="G6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="H6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890126</v>
       </c>
       <c r="I6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890126</v>
       </c>
       <c r="J6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="K6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="L6" t="n">
-        <v>10750.74055314464</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="M6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="N6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890126</v>
       </c>
       <c r="O6" t="n">
-        <v>10750.74055314464</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="P6" t="n">
-        <v>10750.74055314464</v>
+        <v>-4399.933416890126</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_3.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128802.4181436854</v>
+        <v>-14717.55966134684</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>16126.11082971696</v>
       </c>
       <c r="C2" t="n">
-        <v>16126.11082971696</v>
+        <v>16126.11082971695</v>
       </c>
       <c r="D2" t="n">
         <v>16126.11082971696</v>
@@ -26328,7 +26328,7 @@
         <v>16126.11082971696</v>
       </c>
       <c r="G2" t="n">
-        <v>16126.11082971695</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="H2" t="n">
         <v>16126.11082971696</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38027.53341689013</v>
+        <v>-24391.92684385884</v>
       </c>
       <c r="C6" t="n">
-        <v>-38027.53341689013</v>
+        <v>-24391.92684385884</v>
       </c>
       <c r="D6" t="n">
-        <v>-38027.53341689013</v>
+        <v>-24391.92684385884</v>
       </c>
       <c r="E6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="F6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141162</v>
       </c>
       <c r="G6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="H6" t="n">
-        <v>-4399.933416890126</v>
+        <v>9235.673156141162</v>
       </c>
       <c r="I6" t="n">
-        <v>-4399.933416890126</v>
+        <v>9235.673156141162</v>
       </c>
       <c r="J6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="K6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="L6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141162</v>
       </c>
       <c r="M6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141162</v>
       </c>
       <c r="N6" t="n">
-        <v>-4399.933416890126</v>
+        <v>9235.673156141162</v>
       </c>
       <c r="O6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141162</v>
       </c>
       <c r="P6" t="n">
-        <v>-4399.933416890126</v>
+        <v>9235.673156141165</v>
       </c>
     </row>
   </sheetData>
